--- a/статы пероснажа.xlsx
+++ b/статы пероснажа.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>здоровье</t>
   </si>
@@ -35,6 +35,33 @@
   </si>
   <si>
     <t>броня</t>
+  </si>
+  <si>
+    <t>валюта</t>
+  </si>
+  <si>
+    <t>бюджет</t>
+  </si>
+  <si>
+    <t>медная</t>
+  </si>
+  <si>
+    <t>серебрянная</t>
+  </si>
+  <si>
+    <t>золотая</t>
+  </si>
+  <si>
+    <t>платиновая</t>
+  </si>
+  <si>
+    <t>алмазная</t>
+  </si>
+  <si>
+    <t>1000=1</t>
+  </si>
+  <si>
+    <t>энергетический</t>
   </si>
 </sst>
 </file>
@@ -58,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,13 +93,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,64 +492,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.4201388888888889</v>
-      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="16:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
